--- a/datos_fbref/RESUMEN_STATS_Ligue_1.xlsx
+++ b/datos_fbref/RESUMEN_STATS_Ligue_1.xlsx
@@ -605,7 +605,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="D3" t="n">
         <v>44.3</v>
@@ -675,31 +675,31 @@
         <v>27.2</v>
       </c>
       <c r="D4" t="n">
-        <v>43.2</v>
+        <v>42.7</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G4" t="n">
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="H4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" t="n">
         <v>6</v>
@@ -708,25 +708,25 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="R4" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="5">
@@ -1074,22 +1074,22 @@
         <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D10" t="n">
-        <v>57.8</v>
+        <v>58.2</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G10" t="n">
-        <v>1980</v>
+        <v>2070</v>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
         <v>47</v>
@@ -1107,28 +1107,28 @@
         <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="S10" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="T10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="11">
